--- a/MainTop/25.04.2025/кластеры_макс_без_футболок_sorted.xlsx
+++ b/MainTop/25.04.2025/кластеры_макс_без_футболок_sorted.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\25.04.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F5D9BF-DCC8-4702-919C-443FCAD259EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9FCECC-4E43-4F00-AB60-3602B918336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -498,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -508,6 +508,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -810,15 +811,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="17" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -6686,7 +6688,63 @@
         <v>130</v>
       </c>
     </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7">
+        <f>SUM(B2:B111)</f>
+        <v>90</v>
+      </c>
+      <c r="C112" s="7">
+        <f t="shared" ref="C112:N112" si="0">SUM(C2:C111)</f>
+        <v>66</v>
+      </c>
+      <c r="D112" s="7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E112" s="7">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F112" s="7">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="G112" s="7">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="H112" s="7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="I112" s="7">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="J112" s="7">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="K112" s="7">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="L112" s="7">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="M112" s="7">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="N112" s="7">
+        <f t="shared" si="0"/>
+        <v>1170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" copies="4" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MainTop/25.04.2025/кластеры_макс_без_футболок_sorted.xlsx
+++ b/MainTop/25.04.2025/кластеры_макс_без_футболок_sorted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\25.04.2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9FCECC-4E43-4F00-AB60-3602B918336C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6799D5E-0C0D-40AB-8689-3849B1902666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6690,58 +6690,19 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="7"/>
-      <c r="B112" s="7">
-        <f>SUM(B2:B111)</f>
-        <v>90</v>
-      </c>
-      <c r="C112" s="7">
-        <f t="shared" ref="C112:N112" si="0">SUM(C2:C111)</f>
-        <v>66</v>
-      </c>
-      <c r="D112" s="7">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="E112" s="7">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="F112" s="7">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="G112" s="7">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="H112" s="7">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="I112" s="7">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="J112" s="7">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="K112" s="7">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="L112" s="7">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="M112" s="7">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="N112" s="7">
-        <f t="shared" si="0"/>
-        <v>1170</v>
-      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="7"/>
+      <c r="M112" s="7"/>
+      <c r="N112" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
